--- a/data/referrals/referrals.xlsx
+++ b/data/referrals/referrals.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$6</definedName>
-    <definedName name="referrals" localSheetId="0">Sheet1!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$7</definedName>
+    <definedName name="referrals" localSheetId="0">Sheet1!$A$1:$H$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,9 +29,10 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="referrals" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="J:\ARPS\data\referrals\referrals.txt">
-      <textFields count="7">
+  <connection id="1" name="referrals" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="65001" sourceFile="J:\ARPS\data\referrals\referrals.txt">
+      <textFields count="8">
+        <textField/>
         <textField/>
         <textField type="text"/>
         <textField/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>SENDER_NUMBER</t>
   </si>
@@ -160,6 +161,27 @@
   </si>
   <si>
     <t>Hismomisareallyactivemember.Heisanlabuthiswifeisbuddhist.Worksasanaccountantandhas3kids.Hismomsaysthatheisareallywellbehavedboyanddeepdownlovesthegospel.Atonepointwantedtogoonamission.Howeverdoesntgotochurchbecauseofthewife.Willingtohavethemissionariesover!Himandhisfamilyliveonbaoqiaolu78shang20hao17nong.</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>2016:2:4:7</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>田凹凸</t>
+  </si>
+  <si>
+    <t>一個測試</t>
+  </si>
+  <si>
+    <t>+886910358944</t>
+  </si>
+  <si>
+    <t>0987017211</t>
   </si>
 </sst>
 </file>
@@ -217,7 +239,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="referrals" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="referrals" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,160 +505,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:8">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G6"/>
+  <autoFilter ref="A1:H7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/referrals/referrals.xlsx
+++ b/data/referrals/referrals.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$7</definedName>
-    <definedName name="referrals" localSheetId="0">Sheet1!$A$1:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$42</definedName>
+    <definedName name="referrals" localSheetId="0">Sheet1!$A$2:$I$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="213">
   <si>
     <t>SENDER_NUMBER</t>
   </si>
@@ -55,133 +55,637 @@
     <t>SENDER_NAME</t>
   </si>
   <si>
-    <t>DEST_ZONE</t>
-  </si>
-  <si>
-    <t>PLACE</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>INFO</t>
-  </si>
-  <si>
     <t>EAST</t>
   </si>
   <si>
-    <t>+886972576566</t>
-  </si>
-  <si>
     <t>OFFICE_E</t>
   </si>
   <si>
     <t>內湖區</t>
   </si>
   <si>
-    <t>尹德明姐妹</t>
-  </si>
-  <si>
-    <t>0910102095</t>
-  </si>
-  <si>
-    <t>student.Memberreferralfromchenqi.文德路208巷62號2F</t>
-  </si>
-  <si>
     <t>WEST</t>
   </si>
   <si>
-    <t>+886972576578</t>
-  </si>
-  <si>
-    <t>TAO_4_E</t>
-  </si>
-  <si>
-    <t>SANXIA</t>
-  </si>
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>0937641359</t>
-  </si>
-  <si>
-    <t>amemberreferralthatcametochurchtodayandsaidshewouldbewillingtomeet!Has2kidsoneis8andtheotheris2.Herhusbanddidntcometochurch.</t>
-  </si>
-  <si>
-    <t>TAIZHONG_x0011_CENTRAL</t>
-  </si>
-  <si>
-    <t>julian</t>
-  </si>
-  <si>
-    <t>0915314491</t>
-  </si>
-  <si>
-    <t>reallynicechristianfamilythatcametotaoyuantotakecareofarestaurantforarelative.</t>
-  </si>
-  <si>
-    <t>+886965008522</t>
-  </si>
-  <si>
-    <t>LUZHOU_B_E</t>
-  </si>
-  <si>
     <t>內湖</t>
   </si>
   <si>
-    <t>陳帥哥</t>
-  </si>
-  <si>
-    <t>0937209212</t>
-  </si>
-  <si>
-    <t>wemethimonthemrtandinvitedhimtoenglishclass.Thereasonwestoppedtotalktohimwasbecausehehadalightinhiseyes.CallhimElderDorius</t>
-  </si>
-  <si>
     <t>SOUTH</t>
   </si>
   <si>
-    <t>+886972576561</t>
-  </si>
-  <si>
-    <t>XINAN_S</t>
-  </si>
-  <si>
-    <t>XINDIAN</t>
-  </si>
-  <si>
-    <t>SuYuShen</t>
-  </si>
-  <si>
-    <t>0987097325</t>
-  </si>
-  <si>
-    <t>Hismomisareallyactivemember.Heisanlabuthiswifeisbuddhist.Worksasanaccountantandhas3kids.Hismomsaysthatheisareallywellbehavedboyanddeepdownlovesthegospel.Atonepointwantedtogoonamission.Howeverdoesntgotochurchbecauseofthewife.Willingtohavethemissionariesover!Himandhisfamilyliveonbaoqiaolu78shang20hao17nong.</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>2016:2:4:7</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>田凹凸</t>
-  </si>
-  <si>
-    <t>一個測試</t>
-  </si>
-  <si>
     <t>+886910358944</t>
   </si>
   <si>
-    <t>0987017211</t>
+    <t>2016:3:1:7</t>
+  </si>
+  <si>
+    <t>+886963917982</t>
+  </si>
+  <si>
+    <t>SANXIA_A</t>
+  </si>
+  <si>
+    <t>WENSHAN</t>
+  </si>
+  <si>
+    <t>eric 黃</t>
+  </si>
+  <si>
+    <t>0911918931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he's a father with a 10 year old and wife. Converted to christianity a few years ago. Has a lot of mormon friends. gave book of mormon and invited to read intro and that you guys would follow up. He was curious as to why we have it. Give his family all the xilis. </t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>+886972576584</t>
+  </si>
+  <si>
+    <t>ZHONGLI_2_E</t>
+  </si>
+  <si>
+    <t>WUGU</t>
+  </si>
+  <si>
+    <t>高崇傑Vito</t>
+  </si>
+  <si>
+    <t>0956376890</t>
+  </si>
+  <si>
+    <t>Cool guy. Bus driver and elementary school teacher. Pretty good english.</t>
+  </si>
+  <si>
+    <t>ZHONGSHAN</t>
+  </si>
+  <si>
+    <t>顏先生</t>
+  </si>
+  <si>
+    <t>0985031322</t>
+  </si>
+  <si>
+    <t>Nice guy. Pullover contact.</t>
+  </si>
+  <si>
+    <t>TAOYUAN</t>
+  </si>
+  <si>
+    <t>DAXI</t>
+  </si>
+  <si>
+    <t>廖先生</t>
+  </si>
+  <si>
+    <t>0922178428</t>
+  </si>
+  <si>
+    <t>Nice guy. Quick contact.</t>
+  </si>
+  <si>
+    <t>ZHONGHE</t>
+  </si>
+  <si>
+    <t>林先生</t>
+  </si>
+  <si>
+    <t>0919203045</t>
+  </si>
+  <si>
+    <t>Cool guy. Seemed interested in gospel and english.</t>
+  </si>
+  <si>
+    <t>+886972576564</t>
+  </si>
+  <si>
+    <t>SHILIN_E</t>
+  </si>
+  <si>
+    <t>三重區</t>
+  </si>
+  <si>
+    <t>施宥辰</t>
+  </si>
+  <si>
+    <t>0970358361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">works in shilin at mcdonalds super cool dude. Contacted a while ago and might have already sent this. Met on the street. Had lesson. </t>
+  </si>
+  <si>
+    <t>+886972576509</t>
+  </si>
+  <si>
+    <t>XIZHI_A_E</t>
+  </si>
+  <si>
+    <t>WANHUA</t>
+  </si>
+  <si>
+    <t>陳</t>
+  </si>
+  <si>
+    <t>0916736291</t>
+  </si>
+  <si>
+    <t>Met briefly willing to learn more</t>
+  </si>
+  <si>
+    <t>XINZHUANG</t>
+  </si>
+  <si>
+    <t>羅家庭</t>
+  </si>
+  <si>
+    <t>0930031831</t>
+  </si>
+  <si>
+    <t>SHULIN</t>
+  </si>
+  <si>
+    <t>陳芮榆</t>
+  </si>
+  <si>
+    <t>0927002301</t>
+  </si>
+  <si>
+    <t>Met briefly willing to learn more. Her boy friend is christian but she hasnt been baptized because of her family. Interested in our view on the family</t>
+  </si>
+  <si>
+    <t>HUALIAN</t>
+  </si>
+  <si>
+    <t>+886972576594</t>
+  </si>
+  <si>
+    <t>YULI_E</t>
+  </si>
+  <si>
+    <t>JIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stone (shi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0911191861</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> met in yuli visiting a friend. likes to use english, and has interest in english class and said he has a couple friends he wants to bring. Older guy but runs marathons every couple of months still. Said he would be ok if we go visit him at his house. Nice guy</t>
+  </si>
+  <si>
+    <t>+886972576590</t>
+  </si>
+  <si>
+    <t>TOUFEN_E</t>
+  </si>
+  <si>
+    <t>SYLVIA XIE XING RUI</t>
+  </si>
+  <si>
+    <t>0987232020</t>
+  </si>
+  <si>
+    <t>FORMER FROM 2013. 26, she is super nice and used to pray all the time. Only really had an htbt lesson.</t>
+  </si>
+  <si>
+    <t>SONGSHAN</t>
+  </si>
+  <si>
+    <t>林瑞長</t>
+  </si>
+  <si>
+    <t>0985781385</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STRAIGHT HOMIE! Former from 2014. Hes christian and has had the first lesson.</t>
+  </si>
+  <si>
+    <t>+886963938192</t>
+  </si>
+  <si>
+    <t>SONGSHAN_E</t>
+  </si>
+  <si>
+    <t>Lin Mu Yun</t>
+  </si>
+  <si>
+    <t>0919818235</t>
+  </si>
+  <si>
+    <t>super awesome. Younger lady. She's great. Good luck.</t>
+  </si>
+  <si>
+    <t>+886972576156</t>
+  </si>
+  <si>
+    <t>XIZHI_B_E</t>
+  </si>
+  <si>
+    <t>蔡文彬</t>
+  </si>
+  <si>
+    <t>0917165863</t>
+  </si>
+  <si>
+    <t>成員回條，成員黃春錫的弟弟住在</t>
+  </si>
+  <si>
+    <t>TAIZHONG_SOUTH</t>
+  </si>
+  <si>
+    <t>+886972576585</t>
+  </si>
+  <si>
+    <t>GUISHAN_E</t>
+  </si>
+  <si>
+    <t>彰化市</t>
+  </si>
+  <si>
+    <t>qiu bo yi</t>
+  </si>
+  <si>
+    <t>0923576828</t>
+  </si>
+  <si>
+    <t>had a lesson, likes the atonement but busy with school</t>
+  </si>
+  <si>
+    <t>+886972576153</t>
+  </si>
+  <si>
+    <t>SANXIA_B</t>
+  </si>
+  <si>
+    <t>板橋區</t>
+  </si>
+  <si>
+    <t>黃先生</t>
+  </si>
+  <si>
+    <t>0935758696</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> huang dx. in a rush, left his business card. </t>
+  </si>
+  <si>
+    <t>+886972576520</t>
+  </si>
+  <si>
+    <t>JILONG_A_E</t>
+  </si>
+  <si>
+    <t>盧台平</t>
+  </si>
+  <si>
+    <t>0952322524</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A members dad.  He works from 7pm to 7am, so call in the afternoon.  He needs someone to 關心他.</t>
+  </si>
+  <si>
+    <t>OFFICE</t>
+  </si>
+  <si>
+    <t>+886972576543</t>
+  </si>
+  <si>
+    <t>SHILIN_S</t>
+  </si>
+  <si>
+    <t>DAAN</t>
+  </si>
+  <si>
+    <t>田文珊</t>
+  </si>
+  <si>
+    <t>0987006249</t>
+  </si>
+  <si>
+    <t>is christian,met her near the temple,she goes to a church near the temple.invite her to do a tour!</t>
+  </si>
+  <si>
+    <t>彭竹均</t>
+  </si>
+  <si>
+    <t>0925921388</t>
+  </si>
+  <si>
+    <t>met her outside the temple,she was in a rush but is interested in doing a temple tour. Her sister is a member in the states</t>
+  </si>
+  <si>
+    <t>+886972576570</t>
+  </si>
+  <si>
+    <t>NEIHU_E</t>
+  </si>
+  <si>
+    <t>XIZHI</t>
+  </si>
+  <si>
+    <t>陳建宏</t>
+  </si>
+  <si>
+    <t>0917245000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quick contact while he was chilling in the dahu park. Buddhist, willing to meet </t>
+  </si>
+  <si>
+    <t>NORTH</t>
+  </si>
+  <si>
+    <t>SHILIN</t>
+  </si>
+  <si>
+    <t>王俊雄</t>
+  </si>
+  <si>
+    <t>0915605900,0985185900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a marine who is currently serving in 大直. Asked him about his job, he was like: it's hard to explain and you dont want to know it. From gao xiong, met missionaries a long time ago. Was a investigator but he forgot all of the teachings </t>
+  </si>
+  <si>
+    <t>+886963790682</t>
+  </si>
+  <si>
+    <t>BEITOU_S</t>
+  </si>
+  <si>
+    <t>RIC CAI</t>
+  </si>
+  <si>
+    <t>0919567515</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for zhonghe elders. met him on the street he didnt have much time so we dont know much about him but he lives in zhonghe pretty close to the chapel! Go teach him repentance and baptize him! </t>
+  </si>
+  <si>
+    <t>GAOXIONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gao hua yi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0970326144</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> christian lady, 23ish, is going to move to australia to get married. Don't know when though</t>
+  </si>
+  <si>
+    <t>ZHUNAN</t>
+  </si>
+  <si>
+    <t>+886963539987</t>
+  </si>
+  <si>
+    <t>TAO_2_E</t>
+  </si>
+  <si>
+    <t>MIAOLI</t>
+  </si>
+  <si>
+    <t>mr. Zhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0903549971</t>
+  </si>
+  <si>
+    <t>been to a church in gui shan, not sure on beliefs</t>
+  </si>
+  <si>
+    <t>中和</t>
+  </si>
+  <si>
+    <t>Sam康</t>
+  </si>
+  <si>
+    <t>0917431955</t>
+  </si>
+  <si>
+    <t>COOL</t>
+  </si>
+  <si>
+    <t>中壢區</t>
+  </si>
+  <si>
+    <t>黃文洪</t>
+  </si>
+  <si>
+    <t>0955888449</t>
+  </si>
+  <si>
+    <t>call at night</t>
+  </si>
+  <si>
+    <t>+886972576588</t>
+  </si>
+  <si>
+    <t>TAO_1_B</t>
+  </si>
+  <si>
+    <t>中正區</t>
+  </si>
+  <si>
+    <t>傅小姐</t>
+  </si>
+  <si>
+    <t>0937060236</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nice christian lady, said if she had time she would be willing net in tao yuan! </t>
+  </si>
+  <si>
+    <t>吳益民</t>
+  </si>
+  <si>
+    <t>0975564499</t>
+  </si>
+  <si>
+    <t>super cool! He's there studying, back in 桃園 for the weekend. Lived in utah as an exchange student, and went to church every week while he was there. He is currently buddhist. Smokes.</t>
+  </si>
+  <si>
+    <t>花蓮</t>
+  </si>
+  <si>
+    <t>張碧桃</t>
+  </si>
+  <si>
+    <t>0922847290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visited tao yuan when we met her, super nice, little bit older </t>
+  </si>
+  <si>
+    <t>YONGHE</t>
+  </si>
+  <si>
+    <t>陳Johnny</t>
+  </si>
+  <si>
+    <t>0982458508</t>
+  </si>
+  <si>
+    <t>王Angela</t>
+  </si>
+  <si>
+    <t>0978981714</t>
+  </si>
+  <si>
+    <t>she is a dancer! Teach her the gospel!</t>
+  </si>
+  <si>
+    <t>邱姊妹</t>
+  </si>
+  <si>
+    <t>0917119255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moms leg is not good, she loves her family. And Willing to be baptized! </t>
+  </si>
+  <si>
+    <t>+886972576507</t>
+  </si>
+  <si>
+    <t>TUCHENG_B_S</t>
+  </si>
+  <si>
+    <t>中壢</t>
+  </si>
+  <si>
+    <t>王聰聰</t>
+  </si>
+  <si>
+    <t>0905483235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From china,here for 6 months studying. Walked onto temple square with friend (also from china). Said they'd come back to do temples tours he they had time. Interested in learning about christianity. She's really short! </t>
+  </si>
+  <si>
+    <t>+886972576500</t>
+  </si>
+  <si>
+    <t>ASSISTANTS</t>
+  </si>
+  <si>
+    <t>LINKOU</t>
+  </si>
+  <si>
+    <t>蘇帥哥</t>
+  </si>
+  <si>
+    <t>0975609539</t>
+  </si>
+  <si>
+    <t>super nice guy wants to hear more!</t>
+  </si>
+  <si>
+    <t>+886972576562</t>
+  </si>
+  <si>
+    <t>WANDA_E</t>
+  </si>
+  <si>
+    <t>SANCHONG</t>
+  </si>
+  <si>
+    <t>林弟兄</t>
+  </si>
+  <si>
+    <t>0975165701</t>
+  </si>
+  <si>
+    <t>He is a member who wants to meet with the missionaries he also really wants to be a musician!帥！</t>
+  </si>
+  <si>
+    <t>BANQIAO</t>
+  </si>
+  <si>
+    <t>CHEN陳姊妹</t>
+  </si>
+  <si>
+    <t>0975668416</t>
+  </si>
+  <si>
+    <t>TEXTHERNOW!Textfirsttoletherknowyouaremissionariesorshewontanswerherphone.Sheisanewinvestigatorforyou!Sheissetuptomeetwithyouonfriday3/11at8pm,whenyoutalktoheryoucansetupaplace.Herbaptismaldateisfor4/9.Shehasabomandcommittedtoreadandpraydaily!Contacthernow!</t>
+  </si>
+  <si>
+    <t>RICCAI</t>
+  </si>
+  <si>
+    <t>forzhongheelders.methimonthestreethedidnthavemuchtimesowedontknowmuchabouthimbuthelivesinzhongheprettyclosetothechapel!Goteachhimrepentanceandbaptizehim!</t>
+  </si>
+  <si>
+    <t>+886912576044</t>
+  </si>
+  <si>
+    <t>BADE_A_E</t>
+  </si>
+  <si>
+    <t>張小姐</t>
+  </si>
+  <si>
+    <t>0928603609</t>
+  </si>
+  <si>
+    <t>superawesomehadafriendbringhertochurchsorrythisiscominglater</t>
+  </si>
+  <si>
+    <t>+886972576539</t>
+  </si>
+  <si>
+    <t>TUCHENG_E</t>
+  </si>
+  <si>
+    <t>中山區</t>
+  </si>
+  <si>
+    <t>李培瑋</t>
+  </si>
+  <si>
+    <t>0939207797</t>
+  </si>
+  <si>
+    <t>Young,marriedwoman.Worksin土城asanurse.Supernice.Jobisbusy.Doesn'tbelieveingodafterseeingsomanytragediesathospital.Quicklessonaboutchallengesandbaptism</t>
+  </si>
+  <si>
+    <t>BASED</t>
+  </si>
+  <si>
+    <t>&gt;9000</t>
+  </si>
+  <si>
+    <t>dopest of dope</t>
+  </si>
+  <si>
+    <t>有興趣</t>
+  </si>
+  <si>
+    <t>BASED 羅斯福</t>
+  </si>
+  <si>
+    <t>ZONE</t>
+  </si>
+  <si>
+    <t>DEST_AREA</t>
+  </si>
+  <si>
+    <t>REFERRAL_NAME</t>
+  </si>
+  <si>
+    <t>REFERRAL_PH_NUM</t>
+  </si>
+  <si>
+    <t>REFERRAL_INFO</t>
+  </si>
+  <si>
+    <t>CONTACT_STATUS</t>
   </si>
 </sst>
 </file>
@@ -218,9 +722,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,189 +1012,1124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H7"/>
+  <autoFilter ref="A1:I42"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/referrals/referrals.xlsx
+++ b/data/referrals/referrals.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$42</definedName>
-    <definedName name="referrals" localSheetId="0">Sheet1!$A$2:$I$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$70</definedName>
+    <definedName name="referrals" localSheetId="0">Sheet1!$A$2:$I$70</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="332">
   <si>
     <t>SENDER_NUMBER</t>
   </si>
@@ -686,6 +686,363 @@
   </si>
   <si>
     <t>CONTACT_STATUS</t>
+  </si>
+  <si>
+    <t>+886972576554</t>
+  </si>
+  <si>
+    <t>NORTH_JINHUA_E</t>
+  </si>
+  <si>
+    <t>ENGLISHWARD</t>
+  </si>
+  <si>
+    <t>Eileen</t>
+  </si>
+  <si>
+    <t>0978408415</t>
+  </si>
+  <si>
+    <t>From Hondoras, 天主教, study business, 六月畢業, had a lesson. Was super nice.</t>
+  </si>
+  <si>
+    <t>+886963917870</t>
+  </si>
+  <si>
+    <t>LUODONG_A_E</t>
+  </si>
+  <si>
+    <t>邱惠雯 Grace</t>
+  </si>
+  <si>
+    <t>0963338678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Really amazing investigator, recently moved, 看完'd the book of mormon. Chubby and friendly</t>
+  </si>
+  <si>
+    <t>+886972576504</t>
+  </si>
+  <si>
+    <t>XINPU_E</t>
+  </si>
+  <si>
+    <t>ENGLISHWARD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> risa</t>
+  </si>
+  <si>
+    <t>0978925090</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> very cool. Interested in improving her english. She is japanese. Happily married with a little girl. Taught first lesson. She has had family problems in her youth, wants to prevent that in her family. </t>
+  </si>
+  <si>
+    <t>kelly</t>
+  </si>
+  <si>
+    <t>0928242706</t>
+  </si>
+  <si>
+    <t>looking for a church. Came to english class twice. Very cool</t>
+  </si>
+  <si>
+    <t>+886972576538</t>
+  </si>
+  <si>
+    <t>YULI_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WEI YI LING</t>
+  </si>
+  <si>
+    <t>0939643169</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cute girl. Mom lives in yuli. Said one prayer to bless her moms health. </t>
+  </si>
+  <si>
+    <t>GUANGFU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wang Qiu Ling</t>
+  </si>
+  <si>
+    <t>0977055757</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cute girl. Grown up catholic. Had a lesson with her. Often goes to hualien.</t>
+  </si>
+  <si>
+    <t>+886972576587</t>
+  </si>
+  <si>
+    <t>SANCHONG_S</t>
+  </si>
+  <si>
+    <t>樹林區</t>
+  </si>
+  <si>
+    <t>0960674791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contacted in a park. Girlfriend lives in our area (sanchong) but we didn't talk to her. He is currently looking for work. </t>
+  </si>
+  <si>
+    <t>+886972576547</t>
+  </si>
+  <si>
+    <t>TIANMU_E</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>MARTIN GUO</t>
+  </si>
+  <si>
+    <t>0936510420</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> said he really likes Jesus. and rap. Good English.</t>
+  </si>
+  <si>
+    <t>+886972576546</t>
+  </si>
+  <si>
+    <t>BEITOU_E</t>
+  </si>
+  <si>
+    <t>XINDIAN</t>
+  </si>
+  <si>
+    <t>forgot</t>
+  </si>
+  <si>
+    <t>0963639761</t>
+  </si>
+  <si>
+    <t>really nice lady, works in beitou on weekends, have had 2 lessons with her so set her up and get a new i</t>
+  </si>
+  <si>
+    <t>+886972576155</t>
+  </si>
+  <si>
+    <t>ZHUNAN_S</t>
+  </si>
+  <si>
+    <t>YILAN</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>0983812036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> met during english boarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YANG2 JUN4 WEI1</t>
+  </si>
+  <si>
+    <t>0975795637</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> elders area</t>
+  </si>
+  <si>
+    <t>XIANGSHAN</t>
+  </si>
+  <si>
+    <t>wang tongxue</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>gugu8558yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DONG3 HUAN4 CHENG2</t>
+  </si>
+  <si>
+    <t>0912695106</t>
+  </si>
+  <si>
+    <t>tonyrool4gmail.com. Elders area by zhunan guozhong</t>
+  </si>
+  <si>
+    <t>CHEN2 YOU3 YI2</t>
+  </si>
+  <si>
+    <t>0958527608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> also elder's area by zhunan guoxiao</t>
+  </si>
+  <si>
+    <t>DONGHAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIMON WANG2</t>
+  </si>
+  <si>
+    <t>0955476177</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> student at taizhong donghai college</t>
+  </si>
+  <si>
+    <t>+886963873617</t>
+  </si>
+  <si>
+    <t>XIZHI_S</t>
+  </si>
+  <si>
+    <t>基陸</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>0917253388</t>
+  </si>
+  <si>
+    <t>Has a friend who is a member in 高雄 wants to learn more and is interested in English!</t>
+  </si>
+  <si>
+    <t>steve huang</t>
+  </si>
+  <si>
+    <t>098657883</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lives in taipei and works hard. Is 48 but his kids are 7 and twelve. English is very good. Just visited a friend in taoyuan. Really a gentle kind man :) </t>
+  </si>
+  <si>
+    <t>SALAWAKMALAYSIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAI XIANSHENG</t>
+  </si>
+  <si>
+    <t>+60168633232</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MET IN TAIWAN. NOT CHRISTIAN BUT INTERESTED IN LEARNING MORE :)</t>
+  </si>
+  <si>
+    <t>+886972576592</t>
+  </si>
+  <si>
+    <t>JIAN_E</t>
+  </si>
+  <si>
+    <t>MINXIONG</t>
+  </si>
+  <si>
+    <t>呂小姐</t>
+  </si>
+  <si>
+    <t>0931983338</t>
+  </si>
+  <si>
+    <t>met missionaries on the train a while ago, she seems really nice.</t>
+  </si>
+  <si>
+    <t>TOUFEN</t>
+  </si>
+  <si>
+    <t>ZHUANG1 YU4 DA2</t>
+  </si>
+  <si>
+    <t>0963098621</t>
+  </si>
+  <si>
+    <t>tongxue</t>
+  </si>
+  <si>
+    <t>ZHANGHUA</t>
+  </si>
+  <si>
+    <t>WENG RONG SHU</t>
+  </si>
+  <si>
+    <t>0970143291</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>LI3 XIANSHENG</t>
+  </si>
+  <si>
+    <t>0987901608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HUANG XIANSHENG</t>
+  </si>
+  <si>
+    <t>0909142032</t>
+  </si>
+  <si>
+    <t>shi2 mei3 bi4</t>
+  </si>
+  <si>
+    <t>0987823252</t>
+  </si>
+  <si>
+    <t>met while english boarding and she is christian!</t>
+  </si>
+  <si>
+    <t>GU3XIAN1ZHENG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gu3</t>
+  </si>
+  <si>
+    <t>037596203</t>
+  </si>
+  <si>
+    <t>+886963719073</t>
+  </si>
+  <si>
+    <t>TAO_2_S</t>
+  </si>
+  <si>
+    <t>ZHONGLI</t>
+  </si>
+  <si>
+    <t>Sun xs</t>
+  </si>
+  <si>
+    <t>0975651270</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> really short contact, but he was super great! One time he fixed the chapels AC for his job! He said he had interest in learning more about the church.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ye xs</t>
+  </si>
+  <si>
+    <t>0916046789</t>
+  </si>
+  <si>
+    <t>he was just sitting on his bike and it was a quick contact and said the missionaries could call him. He was nice and willing to listen</t>
+  </si>
+  <si>
+    <t>TAIBEI</t>
+  </si>
+  <si>
+    <t>hong xs</t>
+  </si>
+  <si>
+    <t>0930810681</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> met him on the way to the bank with 30 missionaries. He knew who the mormons were and was interested in my companion marrying his son. </t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1023,11 +1380,11 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71" style="2" customWidth="1"/>
+    <col min="8" max="8" width="81.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1060,7 +1417,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1294,7 +1651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60">
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1554,7 +1911,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1580,7 +1937,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60">
+    <row r="22" spans="1:8" ht="45">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2405,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45">
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2128,8 +2485,715 @@
         <v>205</v>
       </c>
     </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="45">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" t="s">
+        <v>238</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51" t="s">
+        <v>255</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" t="s">
+        <v>261</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" t="s">
+        <v>268</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" t="s">
+        <v>260</v>
+      </c>
+      <c r="E56" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" t="s">
+        <v>278</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" t="s">
+        <v>283</v>
+      </c>
+      <c r="E58" t="s">
+        <v>284</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" t="s">
+        <v>291</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" t="s">
+        <v>301</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" t="s">
+        <v>305</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D64" t="s">
+        <v>260</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" t="s">
+        <v>260</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66" t="s">
+        <v>301</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" t="s">
+        <v>260</v>
+      </c>
+      <c r="E67" t="s">
+        <v>316</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D68" t="s">
+        <v>320</v>
+      </c>
+      <c r="E68" t="s">
+        <v>321</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" t="s">
+        <v>321</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" t="s">
+        <v>328</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I42"/>
+  <autoFilter ref="A1:I70"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/referrals/referrals.xlsx
+++ b/data/referrals/referrals.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$143</definedName>
-    <definedName name="referrals_1" localSheetId="0">Sheet1!$A$1:$I$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$358</definedName>
+    <definedName name="referrals_1" localSheetId="0">Sheet1!$A$1:$I$357</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="1603">
   <si>
     <t>EAST</t>
   </si>
@@ -2109,6 +2109,2754 @@
   </si>
   <si>
     <t xml:space="preserve"> super nice, works selling alcohol, a little interested in christianity, has friends who are christians and has gone to church</t>
+  </si>
+  <si>
+    <t>2016:4:1:3:0:DANSHUI_A_E</t>
+  </si>
+  <si>
+    <t>TOUR_S</t>
+  </si>
+  <si>
+    <t>大安區</t>
+  </si>
+  <si>
+    <t>Su 帥哥</t>
+  </si>
+  <si>
+    <t>0916876848</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Former, called and sounded okay with meeting but doesnt live in danshui anymore so he said i could give you his number</t>
+  </si>
+  <si>
+    <t>2016:4:1:3:0:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>曾 angel</t>
+  </si>
+  <si>
+    <t>0935050931</t>
+  </si>
+  <si>
+    <t>great english student met before thought it was alright high school</t>
+  </si>
+  <si>
+    <t>2016:4:1:3:0:XIZHI_B_E</t>
+  </si>
+  <si>
+    <t>斗六市</t>
+  </si>
+  <si>
+    <t>李帥哥</t>
+  </si>
+  <si>
+    <t>0983006010</t>
+  </si>
+  <si>
+    <t>大學一年級，跟我們禱告！</t>
+  </si>
+  <si>
+    <t>2016:4:1:3:0:ZHUBEI_2_S</t>
+  </si>
+  <si>
+    <t>林chi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0972119289</t>
+  </si>
+  <si>
+    <t>english class ref. She moved to ban qiao in 2015</t>
+  </si>
+  <si>
+    <t>2016:4:1:7:0:JILONG_A_E</t>
+  </si>
+  <si>
+    <t>SANCHONG_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHONG </t>
+  </si>
+  <si>
+    <t>王偉安 Jeremy</t>
+  </si>
+  <si>
+    <t>0983228900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> this guy is one incredible. He has been active here in 基隆 for several weeks now. The ward keeps on thinking he is a member. He comes here because we have an english gospel principles class. Super 感動 today at church, and recently going through hard times. Elder luther, make your 基隆麻吉's proud and baptize him!</t>
+  </si>
+  <si>
+    <t>2016:4:1:7:0:SANXIA_A_E</t>
+  </si>
+  <si>
+    <t>YONGHE_S</t>
+  </si>
+  <si>
+    <t>永和區</t>
+  </si>
+  <si>
+    <t>aki 李馨儒</t>
+  </si>
+  <si>
+    <t>0925602420</t>
+  </si>
+  <si>
+    <t>cool girl in twenties. Had a great lesson! Interested in prophets and committed to come to conference. Call her tonight!</t>
+  </si>
+  <si>
+    <t>2016:4:1:7:0:ZHONGHE_2_E</t>
+  </si>
+  <si>
+    <t>bankok thailand</t>
+  </si>
+  <si>
+    <t>vick</t>
+  </si>
+  <si>
+    <t>66909100201</t>
+  </si>
+  <si>
+    <t>dont call until after 4/7/16 he is so golden super nice let us pray for him his relative recently passed away. be his bro and he will be baptized.</t>
+  </si>
+  <si>
+    <t>2016:4:1:7:1:TIANMU_A_E</t>
+  </si>
+  <si>
+    <t>DAZHI</t>
+  </si>
+  <si>
+    <t>周</t>
+  </si>
+  <si>
+    <t>0932922669</t>
+  </si>
+  <si>
+    <t>mom that is willing for her family to meet us. Free on this monday and tuesday. Give call tonight. She wants her kid to speak english and thinks our teachings are good.</t>
+  </si>
+  <si>
+    <t>2016:4:1:7:2:OFFICE_E</t>
+  </si>
+  <si>
+    <t>2016:4:1:7:3:OFFICE_E</t>
+  </si>
+  <si>
+    <t>2016:4:1:7:4:OFFICE_E</t>
+  </si>
+  <si>
+    <t>2016:4:1:7:5:OFFICE_E</t>
+  </si>
+  <si>
+    <t>ASSISTANTS</t>
+  </si>
+  <si>
+    <t>新北市</t>
+  </si>
+  <si>
+    <t>2016:4:1:7:6:OFFICE_E</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:0:HUALIAN_2_E</t>
+  </si>
+  <si>
+    <t>臺東縣</t>
+  </si>
+  <si>
+    <t>0981369052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nice guy found from a wrong number </t>
+  </si>
+  <si>
+    <t>2016:4:2:1:0:JINHUA_S</t>
+  </si>
+  <si>
+    <t>信安</t>
+  </si>
+  <si>
+    <t>宜庭</t>
+  </si>
+  <si>
+    <t>0983708116</t>
+  </si>
+  <si>
+    <t>在路上遇見，住在古亭站附近，最近可能會搬家</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:0:LUODONG_A_E</t>
+  </si>
+  <si>
+    <t>賴先生</t>
+  </si>
+  <si>
+    <t>0952965676</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:0:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>DANSHUI_A_E</t>
+  </si>
+  <si>
+    <t>八里區</t>
+  </si>
+  <si>
+    <t>江明玥</t>
+  </si>
+  <si>
+    <t>0977267393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an sweet lady that has had all the lessons and being baptized but had to suddenly had note becaus of family issues she says she is poor but dont let her use it an excuse </t>
+  </si>
+  <si>
+    <t>2016:4:2:1:0:MUZHA_S</t>
+  </si>
+  <si>
+    <t>林yi2peng2</t>
+  </si>
+  <si>
+    <t>0955316690</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cool guy, got baptized a year ago in another church because he wanted a happier family. Had a lesson and set him up for tomorrow night at 6 before realizing he didnt live in our area. Told him you'd call to set up. Do it pronto! Works every day but sunday  </t>
+  </si>
+  <si>
+    <t>2016:4:2:1:0:OFFICE_E</t>
+  </si>
+  <si>
+    <t>臺中</t>
+  </si>
+  <si>
+    <t>吳哲宇</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:0:TIANMU_A_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zhuwei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jerome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0927090435</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> young father who is willing to listen to our message. </t>
+  </si>
+  <si>
+    <t>2016:4:2:1:0:XINAN_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zhang Zhong Lun </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0988781140</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Met outside of a family mart. No lesson but a junior in college.</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:0:ZHUBEI_1_S</t>
+  </si>
+  <si>
+    <t>YONGKANG</t>
+  </si>
+  <si>
+    <t>莊家棋</t>
+  </si>
+  <si>
+    <t>0921839728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goes to college at 成大 3rd year ba? his family is bai bai but he, himself has interest.  </t>
+  </si>
+  <si>
+    <t>2016:4:2:1:0:ZHUBEI_2_S</t>
+  </si>
+  <si>
+    <t>TOUFEN</t>
+  </si>
+  <si>
+    <t>陳 yan xi</t>
+  </si>
+  <si>
+    <t>0977415365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> super awesome high school student. Watched hallelujah with him and his girlfriend. He wanted to make sure someone would call him</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:1:HUALIAN_2_E</t>
+  </si>
+  <si>
+    <t>HUALIAN_3_E</t>
+  </si>
+  <si>
+    <t>新城鄉</t>
+  </si>
+  <si>
+    <t>胡帥哥</t>
+  </si>
+  <si>
+    <t>0983344776</t>
+  </si>
+  <si>
+    <t>this is the guy from yesterday doing dang bing at taroko</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:1:LUODONG_A_E</t>
+  </si>
+  <si>
+    <t>NEIHU_S</t>
+  </si>
+  <si>
+    <t>內湖區</t>
+  </si>
+  <si>
+    <t>吳同學</t>
+  </si>
+  <si>
+    <t>0983632325</t>
+  </si>
+  <si>
+    <t>lives in 東湖</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:1:OFFICE_E</t>
+  </si>
+  <si>
+    <t>TAIDONG_2_ZL</t>
+  </si>
+  <si>
+    <t>台東</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:1:XINAN_S</t>
+  </si>
+  <si>
+    <t>SANXIA_B_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SANXIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zhang Mini Chiu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0923822360</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Probably middle aged. Dad is Christian. Mom is older and pick in the hospital. When she was growing us she went to church with her dad. Now not so much. Had a lesson with her!</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:1:ZHUBEI_1_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paul</t>
+  </si>
+  <si>
+    <t>0911409211</t>
+  </si>
+  <si>
+    <t>Called a wrong number and he answered. he is from vietnam and speaks english. is catholic but not sure about the existance of god. Willing to meet but is in college, so says it depends on his time. Really really awesome. Has seen missionaries before.</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:1:ZHUBEI_2_S</t>
+  </si>
+  <si>
+    <t>ZHUDONG_S</t>
+  </si>
+  <si>
+    <t>XIONGLIN</t>
+  </si>
+  <si>
+    <t>杜XS</t>
+  </si>
+  <si>
+    <t>0930185102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> awesome college student. Says he sees missionaries around all the time. Super personable and willing to set up</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:2:HUALIAN_2_E</t>
+  </si>
+  <si>
+    <t>0974008466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nice guy met in hua lian walking on the street said he is a former </t>
+  </si>
+  <si>
+    <t>2016:4:2:1:2:LUODONG_A_E</t>
+  </si>
+  <si>
+    <t>YILAN_S</t>
+  </si>
+  <si>
+    <t>蘇澳鎮</t>
+  </si>
+  <si>
+    <t>林詠量</t>
+  </si>
+  <si>
+    <t>0939614016</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:2:OFFICE_E</t>
+  </si>
+  <si>
+    <t>XINAN_S</t>
+  </si>
+  <si>
+    <t>信義區</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:2:XINAN_S</t>
+  </si>
+  <si>
+    <t>LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUZHOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xu Ren He</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0980709468</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A dad with a four year old child. Has a lot of Christian coworkers. We prayed for him. Really nice!</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:3:LUODONG_A_E</t>
+  </si>
+  <si>
+    <t>ZHONGLI_1_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中壢區</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qiu si kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0963201278</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~17 years old. Met in luodong. Nice kid, possibly willing to set up again.</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:3:OFFICE_E</t>
+  </si>
+  <si>
+    <t>2016:4:2:1:4:LUODONG_A_E</t>
+  </si>
+  <si>
+    <t>楊先生</t>
+  </si>
+  <si>
+    <t>0985901987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met him on the train with his gf (who is also very interested but didnt give us her number bc he gave us his) taught resto and gave him a bom. Golden. </t>
+  </si>
+  <si>
+    <t>2016:4:2:2:0:HUALIAN_1_S</t>
+  </si>
+  <si>
+    <t>HUALIAN_2_ZL</t>
+  </si>
+  <si>
+    <t>Zhen Yong Xing</t>
+  </si>
+  <si>
+    <t>0987592096</t>
+  </si>
+  <si>
+    <t>2016:4:2:2:0:OFFICE_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 淡水區</t>
+  </si>
+  <si>
+    <t>2016:4:2:2:1:HUALIAN_1_S</t>
+  </si>
+  <si>
+    <t>HUALIAN_2_E</t>
+  </si>
+  <si>
+    <t>Li Yu Zhen</t>
+  </si>
+  <si>
+    <t>0919251375</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:ANKANG_E</t>
+  </si>
+  <si>
+    <t>sanchong</t>
+  </si>
+  <si>
+    <t>杜先生Du</t>
+  </si>
+  <si>
+    <t>0930053322</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christian guy, nice but has interesting opinions, might be interested in meeting, has a family and kids</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:BEITOU_E</t>
+  </si>
+  <si>
+    <t>ZHONGHE_1_E</t>
+  </si>
+  <si>
+    <t>王文琦wangwenqi</t>
+  </si>
+  <si>
+    <t>0987066799</t>
+  </si>
+  <si>
+    <t>believes in YiGuandao, sister is a christian, didnt have a lesson, older, maybe 59, fairly kind</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:DANFENG_E</t>
+  </si>
+  <si>
+    <t>XIANGSHAN_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香山 </t>
+  </si>
+  <si>
+    <t>吳彥霖</t>
+  </si>
+  <si>
+    <t>0905591590</t>
+  </si>
+  <si>
+    <t>He is a college student.We did a quick lesson about prayer and baptism.He is willing to meet missionaries to learn more JESUS CHRIST'S gospel.</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:HUALIAN_2_ZL</t>
+  </si>
+  <si>
+    <t>ken彭</t>
+  </si>
+  <si>
+    <t>0926810520</t>
+  </si>
+  <si>
+    <t>hes just the nicest guy. The nicest guy, really just the nicest</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:JINHUA_S</t>
+  </si>
+  <si>
+    <t>黃第兄</t>
+  </si>
+  <si>
+    <t>0939159955</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He's an la we met around SOGO. He was baptized 7 years ago in TaiNan. He said he was busy with work. Seems to love missionaries</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:JINHUA_ZL</t>
+  </si>
+  <si>
+    <t>JIAYI</t>
+  </si>
+  <si>
+    <t>邱小姐</t>
+  </si>
+  <si>
+    <t>0966717765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she was a wrong number but willing to allow us to give you her number </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:LUODONG_A_E</t>
+  </si>
+  <si>
+    <t>土城區</t>
+  </si>
+  <si>
+    <t>林冠宇</t>
+  </si>
+  <si>
+    <t>0989777240</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:LUODONG_B_E</t>
+  </si>
+  <si>
+    <t>YILAN_E</t>
+  </si>
+  <si>
+    <t>宜蘭市</t>
+  </si>
+  <si>
+    <t>黃佳珮</t>
+  </si>
+  <si>
+    <t>0960771303</t>
+  </si>
+  <si>
+    <t>what Elder Iverson told you</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:LUZHOU_B_E</t>
+  </si>
+  <si>
+    <t>BEITOU_E</t>
+  </si>
+  <si>
+    <t>北投</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicole 林 </t>
+  </si>
+  <si>
+    <t>0958805252</t>
+  </si>
+  <si>
+    <t>Member referral: 江坤達的朋友</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:OFFICE_E</t>
+  </si>
+  <si>
+    <t>MUZHA_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 文山區</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yang Pei Xun (Sylvia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0963091727</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is an online referral. She referred herselr to us. Attended church once. Has really good English. Met with her once and have her a chapel tour about the restoration. Is actually moving to *部分文字流失*</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:SANXIA_A_E</t>
+  </si>
+  <si>
+    <t>太平區</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>0925532122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帥哥. Married. No kids. Cares a lot about safe, happy kids. Just opened a store in 三峽. Not in 臺中 on tuesdays or wednesdays. </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:SONGSHAN_S</t>
+  </si>
+  <si>
+    <t>SHILIN_S</t>
+  </si>
+  <si>
+    <t>SHILIN</t>
+  </si>
+  <si>
+    <t>黃政楦 huang zheng xuan</t>
+  </si>
+  <si>
+    <t>0978803285</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> he lives in 天母 was going to work, works with computers cool guy no real personal religion but family bais said a prayer said he would be willing to meet. Give him a try </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:SONGSHAN_ZL</t>
+  </si>
+  <si>
+    <t>Chen Yi4 Xuan1</t>
+  </si>
+  <si>
+    <t>0912504303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sick girl. This was our second time meeting her here in songshan. Down to meet</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:TAO_3_E_ZL</t>
+  </si>
+  <si>
+    <t>吳信宏</t>
+  </si>
+  <si>
+    <t>0958045968</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:WANDA_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZHONGHE </t>
+  </si>
+  <si>
+    <t>Andy 黃</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0938848997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he is 19 christian. Really cool had a lesson. </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:XINAN_S</t>
+  </si>
+  <si>
+    <t>NEIHU_E</t>
+  </si>
+  <si>
+    <t>neihu</t>
+  </si>
+  <si>
+    <t>heddy</t>
+  </si>
+  <si>
+    <t>0972025779</t>
+  </si>
+  <si>
+    <t>just got new work, call in morning or during the day, knows how to pray, super cool</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:XINBAN_E</t>
+  </si>
+  <si>
+    <t>CINDY</t>
+  </si>
+  <si>
+    <t>0903656708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHE WILL MEET BA. </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:XINDIAN_E</t>
+  </si>
+  <si>
+    <t>張小姐</t>
+  </si>
+  <si>
+    <t>0985200172</t>
+  </si>
+  <si>
+    <t>lady we met today lives near the 中和border she knew where the church was     love elder stevenson</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:XINPU_E</t>
+  </si>
+  <si>
+    <t>Yan</t>
+  </si>
+  <si>
+    <t>0972795872</t>
+  </si>
+  <si>
+    <t>christian super cool, gave resto tract, willing to meet.(elder 艾is so 帥）</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:XIZHI_A_E</t>
+  </si>
+  <si>
+    <t>JILONG_B_E</t>
+  </si>
+  <si>
+    <t>QIDU</t>
+  </si>
+  <si>
+    <t>江品萱</t>
+  </si>
+  <si>
+    <t>0983708919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super nice christian girl who said she would be willing to meet and come to church in 基隆。Try to get Mandy李 to 陪課 they could be good friends  </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:YULI_E</t>
+  </si>
+  <si>
+    <t>陳先生</t>
+  </si>
+  <si>
+    <t>0933733464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">former english student.  </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:0:ZHUNAN_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xu2</t>
+  </si>
+  <si>
+    <t>0976628290</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> female, 30s</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:1:ANKANG_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sanchong</t>
+  </si>
+  <si>
+    <t>簡先生 jian</t>
+  </si>
+  <si>
+    <t>0916159828</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Super dope nice guy. Busy with work though, quick contact </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:1:DANFENG_E</t>
+  </si>
+  <si>
+    <t>XINZHU_3_ZL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XINZHU </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:1:HUALIAN_2_ZL</t>
+  </si>
+  <si>
+    <t>Yanna 邱</t>
+  </si>
+  <si>
+    <t>0921182049</t>
+  </si>
+  <si>
+    <t>met in 花蓮, she's committed to pray every day, and set up with you</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:1:JINHUA_S</t>
+  </si>
+  <si>
+    <t>ZHONGHE_2_S</t>
+  </si>
+  <si>
+    <t>林麗芊</t>
+  </si>
+  <si>
+    <t>0958100367</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:1:LUODONG_B_E</t>
+  </si>
+  <si>
+    <t>三民區</t>
+  </si>
+  <si>
+    <t>陳煒翔</t>
+  </si>
+  <si>
+    <t>0930841119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (18) Former from three years ago that is willing to meet again.  上到第四課 </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:1:OFFICE_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 信義區</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He's an la we met around SOGO. lives across the jinhua / xinan boundary near SOGO. He was baptized 7 years ago in TaiNan. He said he was busy with work. Seems to love missionaries</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:1:SONGSHAN_S</t>
+  </si>
+  <si>
+    <t>SANCHONG_S</t>
+  </si>
+  <si>
+    <t>0975112344</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> he is a binglan chewin, cigarette smokin, blue truck driver. So 加油</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:1:TAO_3_E_ZL</t>
+  </si>
+  <si>
+    <t>管小姐</t>
+  </si>
+  <si>
+    <t>0960669698</t>
+  </si>
+  <si>
+    <t>college student</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:1:WANDA_E</t>
+  </si>
+  <si>
+    <t>0938710929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waiting for his gf really interested in english had a lesson. </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:1:XINAN_S</t>
+  </si>
+  <si>
+    <t>wenhua</t>
+  </si>
+  <si>
+    <t>xujiemei</t>
+  </si>
+  <si>
+    <t>0986667975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gave her a track, she was in a rush to get to english class  </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:1:XINPU_E</t>
+  </si>
+  <si>
+    <t>SHILIN_ZL</t>
+  </si>
+  <si>
+    <t>陳</t>
+  </si>
+  <si>
+    <t>0958801100</t>
+  </si>
+  <si>
+    <t>super awesome girl! 18 years old. She took an english tract and wants to learn english.（艾長老很帥！）</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:2:HUALIAN_2_ZL</t>
+  </si>
+  <si>
+    <t>邱秉成</t>
+  </si>
+  <si>
+    <t>0988832137</t>
+  </si>
+  <si>
+    <t>cool guy who says he spends most of his time either there or in 台中。he is a new investigator, and has a book of mormon</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:2:JINHUA_S</t>
+  </si>
+  <si>
+    <t>內湖</t>
+  </si>
+  <si>
+    <t>陳韻宇</t>
+  </si>
+  <si>
+    <t>0932758676</t>
+  </si>
+  <si>
+    <t>高三，很可愛</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:2:LUODONG_B_E</t>
+  </si>
+  <si>
+    <t>陳維陽</t>
+  </si>
+  <si>
+    <t>0952667297</t>
+  </si>
+  <si>
+    <t>former record. Met with missionaries 9 years ago. His job has 不一定 schedule(its actually true not a lie) but said you can contact him.</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:2:OFFICE_E</t>
+  </si>
+  <si>
+    <t>JINHUA_S</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:2:TAO_3_E_ZL</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>0978916620</t>
+  </si>
+  <si>
+    <t>very very christian. Lived in canada. Might want to take the invite him to church to see what its like approach</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:2:WANDA_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DAAN </t>
+  </si>
+  <si>
+    <t>Eunice 謝</t>
+  </si>
+  <si>
+    <t>0982706157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interested in english quick contact. </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:2:XINAN_S</t>
+  </si>
+  <si>
+    <t>ZHONGHE_2_E</t>
+  </si>
+  <si>
+    <t>zhonghe</t>
+  </si>
+  <si>
+    <t>chen jiemei</t>
+  </si>
+  <si>
+    <t>0912745292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prush to class  </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:3:JINHUA_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 信安</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:3:OFFICE_E</t>
+  </si>
+  <si>
+    <t>JINHUA_ZL</t>
+  </si>
+  <si>
+    <t>台北</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:3:TAO_3_E_ZL</t>
+  </si>
+  <si>
+    <t>BADE_S</t>
+  </si>
+  <si>
+    <t>八德區</t>
+  </si>
+  <si>
+    <t>鄭先生</t>
+  </si>
+  <si>
+    <t>0919019888</t>
+  </si>
+  <si>
+    <t>christian who doesnt go to church</t>
+  </si>
+  <si>
+    <t>2016:4:2:3:3:XINAN_S</t>
+  </si>
+  <si>
+    <t>beitou</t>
+  </si>
+  <si>
+    <t>0978665011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle aged mom, has a baby, morning time is best to call her, super cool, gave her a track, no lesson </t>
+  </si>
+  <si>
+    <t>2016:4:2:3:4:XINAN_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUZHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is an online referral. She referred herselr to us. Attended church once. Has really good English. Met with her once and have her a chapel tour about the restoration. Is actually moving to Muzha today. She is interested in learning more about our church. Has a 2 year old daughter. Husband's family owns a miao. Thinks buddhism/daoism is scary. Doesn't want to pray because of her past experiences with buddhism is afraid of evil spirits coming and possessing her. Super normal and cool. Told us to let you know to call her in like a week after things from the move settle down!</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:+886963771573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LINKOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 李韋杰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0938717013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> temple tour nonmember referral. Male. 24yrs.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:ASSISTANTS</t>
+  </si>
+  <si>
+    <t>楊</t>
+  </si>
+  <si>
+    <t>0913395515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPER COOL college student had a little lesson wants to learn more. </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:BADE_B_E</t>
+  </si>
+  <si>
+    <t>鄭人豪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0972930613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cool guy, quick contact.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:BEITOU_S</t>
+  </si>
+  <si>
+    <t>Zheng jie mei</t>
+  </si>
+  <si>
+    <t>0930698916</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> she said she lived right by the train station in taoyuan. She is a mom with 3 kids. Her son has  special needs. We prayed with her and she seemed like she was searching for happiness and joy! A bit shy, but so sweet. </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:DANSHUI_B_E</t>
+  </si>
+  <si>
+    <t>suao</t>
+  </si>
+  <si>
+    <t>陳彥廷</t>
+  </si>
+  <si>
+    <t>0976225132</t>
+  </si>
+  <si>
+    <t>wonderful, humble guy getting out for exercising. He lives in 淡水 and works in the army in suao. Taught a lesson, and he seemed interested in learning more about how to know God exists. He prayed for the first time in his life, and very ready for another meeting with missionaries. 加油，朋友們。</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:HUALIAN_1_E</t>
+  </si>
+  <si>
+    <t>zhongli</t>
+  </si>
+  <si>
+    <t>Thomas 文玉山</t>
+  </si>
+  <si>
+    <t>0922421980</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> met with missionaries significantly before. May have already received answer to a prayer about book of mormon. Christian. Lives near train station. Works in ford factory.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:HUALIAN_2_ZL</t>
+  </si>
+  <si>
+    <t>唐先生</t>
+  </si>
+  <si>
+    <t>0916788319</t>
+  </si>
+  <si>
+    <t>met him in 花蓮，he's about 20 years old</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:JINGXIN_ZL</t>
+  </si>
+  <si>
+    <t>黃兄弟</t>
+  </si>
+  <si>
+    <t>0912134316</t>
+  </si>
+  <si>
+    <t>studies at a military school, nice guy 22years old</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:LUODONG_A_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 內湖區</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Una (YOU-na)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0956288762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> just met her here in luodong. Works at  a hotel. Graduated last year. Willing to set a time when you call.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:LUODONG_B_E</t>
+  </si>
+  <si>
+    <t>0921105772</t>
+  </si>
+  <si>
+    <t>does interior design for work. Already christian. Says he got baptized (in other church),  during college, converted because he was at a low point. Had a street lesson. Said willing to meet.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:OFFICE_E</t>
+  </si>
+  <si>
+    <t>士林區</t>
+  </si>
+  <si>
+    <t>王憶儒</t>
+  </si>
+  <si>
+    <t>0989982367</t>
+  </si>
+  <si>
+    <t>nice guy and his girlfriend</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:SONGSHAN_S</t>
+  </si>
+  <si>
+    <t>WANHUA       NAME:鄭弟兄</t>
+  </si>
+  <si>
+    <t>鄭弟兄</t>
+  </si>
+  <si>
+    <t>0955371615</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stoplight contact has interest in english and jesus </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:SONGSHAN_ZL</t>
+  </si>
+  <si>
+    <t>土城</t>
+  </si>
+  <si>
+    <t>小火</t>
+  </si>
+  <si>
+    <t>0985863381</t>
+  </si>
+  <si>
+    <t>works in 松山 it was a quick contact. Love you elder ribar</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:TAIDONG_1_E</t>
+  </si>
+  <si>
+    <t>NANZI</t>
+  </si>
+  <si>
+    <t>Amy 顏</t>
+  </si>
+  <si>
+    <t>0935418790</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Originally from 台東 but in 高雄 for college. Seems pretty interested in English and Jesus!</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:TAO_2_E</t>
+  </si>
+  <si>
+    <t>淡水區</t>
+  </si>
+  <si>
+    <t>黃馨儂</t>
+  </si>
+  <si>
+    <t>0978696832</t>
+  </si>
+  <si>
+    <t>super cool! Lives near the mrt station. Went to our church in Zhongli years ago. Goes togoes to school there. Set a baptismal date for 5/21.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:TIANMU_A_E</t>
+  </si>
+  <si>
+    <t>NEIHU</t>
+  </si>
+  <si>
+    <t>victor</t>
+  </si>
+  <si>
+    <t>0916706618</t>
+  </si>
+  <si>
+    <t>FAMILY!victor (dad) wants to in to church with his family. He is leaning toward 長老教 but is willing to check us out and meet. Wife (linda) has been to salt lake temple on vacation. They want their son albert (great english) to have more confidence in himself. Their view of church is more casual like a fun place to make friends.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:TOUR_S</t>
+  </si>
+  <si>
+    <t>wang dixiong</t>
+  </si>
+  <si>
+    <t>0976719562</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> went to church regularly when he lived in michigan for a year of high school. Hasn't really had any relation after coming back. His grandpa is sick and so we prayed for him. Had a quick lesson but didnt get too in depth. Willing to give his number </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:WANDA_S</t>
+  </si>
+  <si>
+    <t>EVE 陳</t>
+  </si>
+  <si>
+    <t>0911290356</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> english class student. She is willing to meet with missionaries! </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:XINAN_S</t>
+  </si>
+  <si>
+    <t>BADE_B_E</t>
+  </si>
+  <si>
+    <t>yingge</t>
+  </si>
+  <si>
+    <t>xu jun hui dx</t>
+  </si>
+  <si>
+    <t>0929506880</t>
+  </si>
+  <si>
+    <t>quick contact</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:XINDIAN_E</t>
+  </si>
+  <si>
+    <t>WANDA_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENGLISH </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> blanka </t>
+  </si>
+  <si>
+    <t>0979825036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> girl from hungary lives in gu ting chinese really good. Not really how interested in gospel she is</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:XINPU_E</t>
+  </si>
+  <si>
+    <t>Tao</t>
+  </si>
+  <si>
+    <t>0920174599 or 224699048</t>
+  </si>
+  <si>
+    <t>female 30's, REALLY WANTS TO COME TO ENGLISH!!! She doesn't want the fuyin yet but start out with english.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:XINZHU_3_ZL</t>
+  </si>
+  <si>
+    <t>香山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qiu 弟兄 </t>
+  </si>
+  <si>
+    <t>0917738925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> just met him on the street talked a little bit about baptism super cool 大學生 good luck. Had a lesson.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:XIZHI_B_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xinzhuang </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 楊人瑄</t>
+  </si>
+  <si>
+    <t>0982377472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很棒的一個女生, said ying gai hui to 洗禮. Double major at fu da, art!  </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:YULI_E</t>
+  </si>
+  <si>
+    <t>TAO_3_E_ZL</t>
+  </si>
+  <si>
+    <t>桃園</t>
+  </si>
+  <si>
+    <t>潘chiu yu</t>
+  </si>
+  <si>
+    <t>0975315900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mom.  Has a couple kids.  Really nice to us </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:ZHONGHE_1_E</t>
+  </si>
+  <si>
+    <t>Wang DX</t>
+  </si>
+  <si>
+    <t>0968147337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cool dude has 2 kids. From zhonghe elders </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:0:ZHONGHE_2_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NEW_x0011_TAIBEI_x0011_GONGGUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Howard</t>
+  </si>
+  <si>
+    <t>0930338938</t>
+  </si>
+  <si>
+    <t>cool guy interested in english class. about 20 yrs old</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:ASSISTANTS</t>
+  </si>
+  <si>
+    <t>員林市</t>
+  </si>
+  <si>
+    <t>蔡凱量</t>
+  </si>
+  <si>
+    <t>0920981678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEMBER REFERRAL WANTED A book of mormon from a member in taipei! Call him up baby! </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:BADE_B_E</t>
+  </si>
+  <si>
+    <t>SANXIA_A_E</t>
+  </si>
+  <si>
+    <t>三峽</t>
+  </si>
+  <si>
+    <t>詹得賢</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0928130513</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> another quick contact</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:HUALIAN_1_E</t>
+  </si>
+  <si>
+    <t>taoyuan_area</t>
+  </si>
+  <si>
+    <t>金小姐</t>
+  </si>
+  <si>
+    <t>044555570</t>
+  </si>
+  <si>
+    <t>came to hualian for an archery competition. Talked a little. Said if home she'd answer. In a side remark to a friend said you can't say no to Jesus.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:LUODONG_A_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zhang jin han</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0987661749</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Met him down here in luodong; nice guy. Seemed willing to set up again, give him a call.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:LUODONG_B_E</t>
+  </si>
+  <si>
+    <t>MUZHA_E</t>
+  </si>
+  <si>
+    <t>文山區</t>
+  </si>
+  <si>
+    <t>游承？</t>
+  </si>
+  <si>
+    <t>0932830413</t>
+  </si>
+  <si>
+    <t>Met at his door. Said he was busy so asked he he could leave his number with us instead.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:SONGSHAN_S</t>
+  </si>
+  <si>
+    <t>陳珮始</t>
+  </si>
+  <si>
+    <t>0978059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She is super tall and funny street contact late for work but is curious about christianity </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:SONGSHAN_ZL</t>
+  </si>
+  <si>
+    <t>謝wolfgang</t>
+  </si>
+  <si>
+    <t>0917055333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">super sick has two daughters willing to find a time to meet </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:TIANMU_A_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taizhong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vivian Lai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0937948920</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying in Taizhong city. College year 3. Has been to a different church before. Seems to have great faith in Jesus Christ. Accepted baptismal invite.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:WANDA_S</t>
+  </si>
+  <si>
+    <t>JERRY LIU</t>
+  </si>
+  <si>
+    <t>0918012378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">came to english class and is interested about coming to church:) </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:XINAN_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Songshan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Din Lee Guo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0930798473</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Met on the street. Had a lesson and told us that praying made him feel peaceful. Sells clothes. Texting is the best way to get into contact with him!</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:XINPU_E</t>
+  </si>
+  <si>
+    <t>TAO_1_A</t>
+  </si>
+  <si>
+    <t>吳</t>
+  </si>
+  <si>
+    <t>0931274769</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> referral for you that came to us via email. He lives on (fushan st. Daxi district taoyuan city) member friend has same work.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:XINZHU_3_ZL</t>
+  </si>
+  <si>
+    <t>BEITOU_S</t>
+  </si>
+  <si>
+    <t>卓小姐</t>
+  </si>
+  <si>
+    <t>0911766117</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> met on the train as she was returning to her own. 19 goes to school up by you. Super sick ready for the gospel. Her father died when she was young.    </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:1:XIZHI_B_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAY; WRONG AREA REFERRED AGAIN</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:2:ASSISTANTS</t>
+  </si>
+  <si>
+    <t>陳貞藝</t>
+  </si>
+  <si>
+    <t>0970043688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEMBER REFERRAL. So sick! Wants missionaries to call so bad! </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:2:BADE_B_E</t>
+  </si>
+  <si>
+    <t>梧棲區</t>
+  </si>
+  <si>
+    <t>沈先生</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0925210887</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quick contact, nice.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:2:LUODONG_A_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宜蘭市</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 邱智倫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0903320227</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Met em down in luodong outside a 全家. Willing to set up again.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:2:LUODONG_B_E</t>
+  </si>
+  <si>
+    <t>FENGSHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cai Dx </t>
+  </si>
+  <si>
+    <t>0933987946</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> willing to set up this week.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:2:SONGSHAN_ZL</t>
+  </si>
+  <si>
+    <t>TIANMU_B_E</t>
+  </si>
+  <si>
+    <t>天母</t>
+  </si>
+  <si>
+    <t>SONG 先生</t>
+  </si>
+  <si>
+    <t>0917185847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">super sick guy asked for our number and told us to call him! He knows 陳長老 from texas </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:2:WANDA_S</t>
+  </si>
+  <si>
+    <t>林姐妹</t>
+  </si>
+  <si>
+    <t>0921826257</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> met in the park. Her mom is christian. We had a lesson and she is interested in learning more. </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:2:XINPU_E</t>
+  </si>
+  <si>
+    <t>Zhongli</t>
+  </si>
+  <si>
+    <t>邱桂琴</t>
+  </si>
+  <si>
+    <t>0919356926</t>
+  </si>
+  <si>
+    <t>She really wants to learn english! Invite to english. She's very willing to learn.</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:3:LUODONG_A_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QIU Guan Wei</t>
+  </si>
+  <si>
+    <t>0988104303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honestly a way cool college kid (super 帥 too) we net in luodong. Loves basketball, especially with his little bro (high school). </t>
+  </si>
+  <si>
+    <t>2016:4:2:4:3:SONGSHAN_ZL</t>
+  </si>
+  <si>
+    <t>信義</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALONE </t>
+  </si>
+  <si>
+    <t>0939705777</t>
+  </si>
+  <si>
+    <t>lived in texas is christian wants to know more about us. This dude is sick</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:3:WANDA_S</t>
+  </si>
+  <si>
+    <t>FU XJ</t>
+  </si>
+  <si>
+    <t>runeone</t>
+  </si>
+  <si>
+    <t>2016:4:2:4:3:XINPU_E</t>
+  </si>
+  <si>
+    <t>陳文章</t>
+  </si>
+  <si>
+    <t>0917460158</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> met english boarding super nice kid. College student, works for a drink company. Good luck.</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:ASSISTANTS</t>
+  </si>
+  <si>
+    <t>板橋市</t>
+  </si>
+  <si>
+    <t>張先生</t>
+  </si>
+  <si>
+    <t>0912256708</t>
+  </si>
+  <si>
+    <t>nice guy met at  the bu area</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:DANSHUI_A_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JASON 陳</t>
+  </si>
+  <si>
+    <t>0929959266</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 帥哥！Met last week, goes to college in danshui, works in  yuanshan, lives in zhonghe. Hit him up!</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:JINGXIN_ZL</t>
+  </si>
+  <si>
+    <t>LONGTAN_E</t>
+  </si>
+  <si>
+    <t>龍潭</t>
+  </si>
+  <si>
+    <t>林建億</t>
+  </si>
+  <si>
+    <t>0911237557</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>王宏麂</t>
+  </si>
+  <si>
+    <t>0975535618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cool want to learn more and be </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:MUZHA_E</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>0909967416</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> English ward! Lives in muzha, professor at the local university. First language is portugese (he's from brazil) but he has been reading the Book of Mormon in English and understands the restoration! He wants to go to church. Might be too busy for more than one conf session this weekend. Call and see!</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:OFFICE_E</t>
+  </si>
+  <si>
+    <t>TAO_3_E</t>
+  </si>
+  <si>
+    <t>大園區</t>
+  </si>
+  <si>
+    <t>陳俊安</t>
+  </si>
+  <si>
+    <t>0931366631</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> referral from temple tour 25years old ,try it.</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:SANXIA_B_E</t>
+  </si>
+  <si>
+    <t>施燕兒 ShiYanEr</t>
+  </si>
+  <si>
+    <t>0972315479</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> female, voluntarily going into the army for about 4 years, leaves next wednesday. Meet with her before she goes to taizhong!</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:SHILIN_S</t>
+  </si>
+  <si>
+    <t>LI3 JIA XIANG2</t>
+  </si>
+  <si>
+    <t>0930481114</t>
+  </si>
+  <si>
+    <t>in his 20s,works at a factory has a lot of stress.set baptismal date for 5/7.ex girlfriend is christian so he has gone to church. counts as a new investigator we set him up for 4/16 to meet at 7pm.so golden!</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:SIYUAN_E</t>
+  </si>
+  <si>
+    <t>鳳山區</t>
+  </si>
+  <si>
+    <t>方小姐</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0929639090</t>
+  </si>
+  <si>
+    <t>calling through some old potential sheets and she said i could give her number to missionaries.  More time on weekends but a bit busy.  Go for it!</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:SONGSHAN_S</t>
+  </si>
+  <si>
+    <t>LEMON lian</t>
+  </si>
+  <si>
+    <t>0937373349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 she is a chef decent english super active in her like local miao club thing wants to help people and spends her free time helping people  </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:TAO_4_E</t>
+  </si>
+  <si>
+    <t>albert</t>
+  </si>
+  <si>
+    <t>0923851538</t>
+  </si>
+  <si>
+    <t>lives on 'da you lu' english student. Younger kid. Maybe 15. Very willing to meet</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:TOUFEN_E</t>
+  </si>
+  <si>
+    <t>林翰裕</t>
+  </si>
+  <si>
+    <t>0911933291</t>
+  </si>
+  <si>
+    <t>準備考試，八月可以見面</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:TOUR_S</t>
+  </si>
+  <si>
+    <t>張弟兄</t>
+  </si>
+  <si>
+    <t>0921383830、0910383830</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> have a lesson with him,nice guy!</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:TUCHENG_ZL</t>
+  </si>
+  <si>
+    <t>李 Jessie</t>
+  </si>
+  <si>
+    <t>0928533492</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For 韓長老  She is a super nice mom. Set up for Sunday 4/10 at 2:30. Call her quick! </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:WANDA_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEITOU </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Danny邱 </t>
+  </si>
+  <si>
+    <t>0975791283</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:XIANGSHAN_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呂淯萱: contacted </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:XINAN_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZHONGZHENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Du Chen Ting (Jennifer Kelly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0223324238</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She is in our English class. Super cool! Doesn't seen like she has a special religion. About 40. Is expecting a call from the missionaries. When you call for her use her Chinese name.</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:XINBAN_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINKOU </t>
+  </si>
+  <si>
+    <t>HANNAH 洪</t>
+  </si>
+  <si>
+    <t>0912517017</t>
+  </si>
+  <si>
+    <t>Super cool lady. Been to english. Interested in plan of salvation so we taught it in first lesson. Set date. She is all yours.</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:XINZHU_1_E</t>
+  </si>
+  <si>
+    <t>曾翔偵</t>
+  </si>
+  <si>
+    <t>0921071934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sweet guy, met him on the street, really interested, we had a lesson and he wants to meet yall </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:YILAN_E</t>
+  </si>
+  <si>
+    <t>TAIPEI</t>
+  </si>
+  <si>
+    <t>陳彥唐</t>
+  </si>
+  <si>
+    <t>0980366384</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:YONGHE_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WUFENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">張hao xiang </t>
+  </si>
+  <si>
+    <t>0983596418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he is our investigator son. He came to church. Has English interest </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:0:ZHONGLI_2_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DAAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eva 林</t>
+  </si>
+  <si>
+    <t>0955765079</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Met her and her mom, quick introductions. Very willing to give a #, seems interested</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:ASSISTANTS</t>
+  </si>
+  <si>
+    <t>伶</t>
+  </si>
+  <si>
+    <t>0911433256</t>
+  </si>
+  <si>
+    <t>her name is ling, she comes up to taipei a lot for business meetings. In late twenties, willing to learn more about jesus christ and our church. Call her up!</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:JINGXIN_ZL</t>
+  </si>
+  <si>
+    <t>戴薏軒</t>
+  </si>
+  <si>
+    <t>0920327512</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:OFFICE_E</t>
+  </si>
+  <si>
+    <t>蘇演派</t>
+  </si>
+  <si>
+    <t>0955906007</t>
+  </si>
+  <si>
+    <t>has some health conditions wants a new start</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:SANXIA_B_E</t>
+  </si>
+  <si>
+    <t>王耀霆 WangYaoTing</t>
+  </si>
+  <si>
+    <t>0911961486</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> college student, from zhanghua. Had a lesson, taught baptism, showed because of him video, he has no specific religious belief.</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:TAO_4_E</t>
+  </si>
+  <si>
+    <t>eric</t>
+  </si>
+  <si>
+    <t>0905185028</t>
+  </si>
+  <si>
+    <t>super nice call between 6 and 9 at night</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:TOUFEN_E</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>0981438962</t>
+  </si>
+  <si>
+    <t>he's such a homie! Studied in shanghai from elementary till he graduated high school. He's dope, call him up! English is super solid, we had one prayer, he used to john in with his aunt as she prayed when he was a kid. He's 18 and going to 清華大學 tell him you're elder perkins' 潘長老’s friend</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:TOUR_S</t>
+  </si>
+  <si>
+    <t>吳怡樺</t>
+  </si>
+  <si>
+    <t>0963109180</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quick contact ,try it.</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:WANDA_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YILAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iris </t>
+  </si>
+  <si>
+    <t>0920706346</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:XIANGSHAN_E</t>
+  </si>
+  <si>
+    <t>qiu 弟兄: contacted set up</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:XINAN_S</t>
+  </si>
+  <si>
+    <t>datong</t>
+  </si>
+  <si>
+    <t>sophia</t>
+  </si>
+  <si>
+    <t>0939964238</t>
+  </si>
+  <si>
+    <t>speaks great english, already christian she says but has not been has not in another church,thinks it is a miracle she met the missionaries, taught how to pray and gave her a bom, she said she is so happy she knows how to talk to god now, gave her an assignment to read moroni 10:5, has a baptismal date for 5-28, super awesome! Go baptize her!</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:XINBAN_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHULIN </t>
+  </si>
+  <si>
+    <t>LINDA 黎</t>
+  </si>
+  <si>
+    <t>0917185631</t>
+  </si>
+  <si>
+    <t>Attended english before. Willing to meet.</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:XINZHU_1_E</t>
+  </si>
+  <si>
+    <t>台中北區</t>
+  </si>
+  <si>
+    <t>黃靈省</t>
+  </si>
+  <si>
+    <t>0980573622</t>
+  </si>
+  <si>
+    <t>lovely man, he's a manager for a singer. He travels a lot, but he's interested in meeting again!</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:YONGHE_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">katie guo </t>
+  </si>
+  <si>
+    <t>0933663575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likes English </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:1:ZHONGLI_2_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHULIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 陳品宏 Alex </t>
+  </si>
+  <si>
+    <t>0979314609</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Met him and his girlfriend, both in high school. Been to church before吧. Give him a call</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:2:JINGXIN_ZL</t>
+  </si>
+  <si>
+    <t>王鈞</t>
+  </si>
+  <si>
+    <t>0916858566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this lil buddy was just home skillet chillen big ups on the street when we yaboop skopped him right up side the skadoodle shnoodle and wipperguppied a cell number out of him, give him a ring a ding and if he gets baptized let elder robinson know </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:2:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>嘉義西部</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:2:OFFICE_E</t>
+  </si>
+  <si>
+    <t>yang jm</t>
+  </si>
+  <si>
+    <t>0922334116</t>
+  </si>
+  <si>
+    <t>only said one prayer, cool, did not have much time</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:2:TAO_4_E</t>
+  </si>
+  <si>
+    <t>羅先生</t>
+  </si>
+  <si>
+    <t>0938567782</t>
+  </si>
+  <si>
+    <t>college kid.</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:2:TOUFEN_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tom 陳彥廷</t>
+  </si>
+  <si>
+    <t>0910033165</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> he's super dope. He likes basketball a lot, and loves a good laugh. Call him 帥 a bunch of times and he'll start goofin. We had a lesson on prayer and heavenly father, he offered a prayer before he left! Has had a girlfriend for the last 3 years, and is down to learn more about the gospel. Call between 6 p.m. To 10 p.m. </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:2:TOUR_S</t>
+  </si>
+  <si>
+    <t>Tina wu</t>
+  </si>
+  <si>
+    <t>0931112399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> english class student,live  六張犁 mrt station,have her a L1 tour .</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:2:WANDA_E</t>
+  </si>
+  <si>
+    <t>Vivi 陳</t>
+  </si>
+  <si>
+    <t>0978801909</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Probably around 30 going to meet a friend. Had a lesson. Was kind of strange. Willing to listen though. </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:2:XINAN_S</t>
+  </si>
+  <si>
+    <t>wen hua</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:2:YONGHE_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JILONG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">張 x.s </t>
+  </si>
+  <si>
+    <t>0955955037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> he is our investigator's son. Nice guy. His dad really wants him to learn more about the  and also English. </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:2:ZHONGLI_2_E</t>
+  </si>
+  <si>
+    <t>洪先生</t>
+  </si>
+  <si>
+    <t>0920512471</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Very quick contact. He is not married, very friendly</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:3:JINGXIN_ZL</t>
+  </si>
+  <si>
+    <t>翁坪偉</t>
+  </si>
+  <si>
+    <t>0932024457</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:3:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>possible screat refferal</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:3:TOUFEN_E</t>
+  </si>
+  <si>
+    <t>ZHONGLI_2_E</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:3:TOUR_S</t>
+  </si>
+  <si>
+    <t>召鳳</t>
+  </si>
+  <si>
+    <t>0930933033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> referral from temple tour,member referral, 50+- years ,after 4/12 try it.</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:3:WANDA_E</t>
+  </si>
+  <si>
+    <t>Michelle 敘</t>
+  </si>
+  <si>
+    <t>0905063816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catholic girl. Shared lesson one and she started crying. Super cool girl around 16 or 17. </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:3:YONGHE_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAIZHONG </t>
+  </si>
+  <si>
+    <t>charlie 洪</t>
+  </si>
+  <si>
+    <t>0928962970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">super cool. He was willing to take a train to taibei to meet with us but then we found out that he doesn't live in taibei right now </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:4:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>台中西區</t>
+  </si>
+  <si>
+    <t>陳又宏</t>
+  </si>
+  <si>
+    <t>0981923077</t>
+  </si>
+  <si>
+    <t>student baptism interest learn</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:4:TOUR_S</t>
+  </si>
+  <si>
+    <t>桃園大園區</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:4:WANDA_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANQIAO </t>
+  </si>
+  <si>
+    <t>Zhuang 先生</t>
+  </si>
+  <si>
+    <t>0937781859</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> was playing a game. </t>
+  </si>
+  <si>
+    <t>2016:4:2:7:5:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>葉雅文</t>
+  </si>
+  <si>
+    <t>0932649923</t>
+  </si>
+  <si>
+    <t>sweet girl baptism willing</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:5:WANDA_E</t>
+  </si>
+  <si>
+    <t>shilin</t>
+  </si>
+  <si>
+    <t>pommyshu</t>
+  </si>
+  <si>
+    <t>0930345077</t>
+  </si>
+  <si>
+    <t>good english might have some interest in church</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:6:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>洪子茹</t>
+  </si>
+  <si>
+    <t>0989907760</t>
+  </si>
+  <si>
+    <t>english class interest</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:6:WANDA_E</t>
+  </si>
+  <si>
+    <t>zhen</t>
+  </si>
+  <si>
+    <t>0983715171</t>
+  </si>
+  <si>
+    <t>said we could share a message about our church</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:7:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>張慈娟</t>
+  </si>
+  <si>
+    <t>0930571220</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:7:WANDA_E</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:8:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>張宏昌</t>
+  </si>
+  <si>
+    <t>0937490069</t>
+  </si>
+  <si>
+    <t>gospel likes</t>
+  </si>
+  <si>
+    <t>2016:4:2:7:9:LUZHOU_A_E</t>
+  </si>
+  <si>
+    <t>吳逸桻</t>
+  </si>
+  <si>
+    <t>0955471215</t>
+  </si>
+  <si>
+    <t>baptism interest</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:JILONG_A_E</t>
+  </si>
+  <si>
+    <t>luo2 hao4 yuan2</t>
+  </si>
+  <si>
+    <t>0983450130</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Member referral.  He wants to learn more about the family</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:NEIHU_E</t>
+  </si>
+  <si>
+    <t>zhubei</t>
+  </si>
+  <si>
+    <t>duncan</t>
+  </si>
+  <si>
+    <t>0936130058</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a young buck of the asian specimen. Ok english with interest in accompanying a couple white gents to dinner. Should remember elder dorius in neihu. 家有！ </t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:OFFICE_E</t>
+  </si>
+  <si>
+    <t>黃弟兄</t>
+  </si>
+  <si>
+    <t>0910615326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">former I who has progressed very far in gospel. Recently moved to 桃園. HE HAS TIME TO MEET DO NOT LET HIM SAY HE HAS NO TIME. </t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:SANXIA_A_E</t>
+  </si>
+  <si>
+    <t>桃園市區</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:SONGSHAN_S</t>
+  </si>
+  <si>
+    <t>Addy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0972772071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> super cute and young mom, on her way to work, has never met or seen missionaries</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:TAO_1_B</t>
+  </si>
+  <si>
+    <t>永和</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> julia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0976909407</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> met english boarding sells cosmetics, 29 yrs old, doesn't really have religion willing to learn more! </t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:TAO_4_E</t>
+  </si>
+  <si>
+    <t>松山</t>
+  </si>
+  <si>
+    <t>羅弟兄</t>
+  </si>
+  <si>
+    <t>0930522279</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 帥哥.  Somewhat interested in gospel. Willing to learn more</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:XINPU_E</t>
+  </si>
+  <si>
+    <t>0981637528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she's 22, learning korean, goes to fuda. Tell you heard her earrings are super cool to break the ice. </t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:XIZHI_S</t>
+  </si>
+  <si>
+    <t>MIAOLI_E</t>
+  </si>
+  <si>
+    <t>苗栗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 彭春櫻</t>
+  </si>
+  <si>
+    <t>0955427423</t>
+  </si>
+  <si>
+    <t>Her English name is Peach:-) Recovering from cancer. Her husband is in 汐止 taking care of her business for her while she rests. Her husband Michael 廖 said she would be interested in learning more:-D</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:YULI_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zeng Kai yi "Derek"</t>
+  </si>
+  <si>
+    <t>0911633368</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An LA here in yuli that said he will be in hualian for the next 6 months for work. Hasn't been to church in over 2 years. He loves to talk about sports and is a really nice guy. He has basically every wow problem</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:ZHONGHE_2_E</t>
+  </si>
+  <si>
+    <t>吳弟兄</t>
+  </si>
+  <si>
+    <t>0916669403</t>
+  </si>
+  <si>
+    <t>this guy is actualy an active member he is wondering if the xi an sisters could help him with some service</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:0:ZHUDONG_E</t>
+  </si>
+  <si>
+    <t>JIMMY 張</t>
+  </si>
+  <si>
+    <t>0989993913</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> College kid met outside our house in 竹東。Likes metal music </t>
+  </si>
+  <si>
+    <t>2016:4:3:4:1:SANXIA_A_E</t>
+  </si>
+  <si>
+    <t>yi3 yu4</t>
+  </si>
+  <si>
+    <t>0918577202</t>
+  </si>
+  <si>
+    <t>cool kid. Remembers missionaries. Recently moved there. He's a former.</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:1:TAO_4_E</t>
+  </si>
+  <si>
+    <t>GUISHAN_E</t>
+  </si>
+  <si>
+    <t>0987320229</t>
+  </si>
+  <si>
+    <t>has been to church once. Likes church. Doesnt believe in god because he cant see him. Said he is a bad man but wants to change.</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:2:TAO_4_E</t>
+  </si>
+  <si>
+    <t>劉姐妹</t>
+  </si>
+  <si>
+    <t>0982077944</t>
+  </si>
+  <si>
+    <t>probably tao 1. Has been to church once. Would like to learn more.</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:3:TAO_4_E</t>
+  </si>
+  <si>
+    <t>frank</t>
+  </si>
+  <si>
+    <t>0910931182</t>
+  </si>
+  <si>
+    <t>eddie0988814508 this is his friend. They both went to utah for 2 weeks and the family they stayed with gave them a book of mormon. Been to church once. Live south of the church. Probably tao 1.</t>
+  </si>
+  <si>
+    <t>2016:4:3:4:4:TAO_4_E</t>
+  </si>
+  <si>
+    <t>ash 陳帥哥</t>
+  </si>
+  <si>
+    <t>0970043464</t>
+  </si>
+  <si>
+    <t>lives near the art museum. Just moved down there for work. He is a chef or cook of some sort.</t>
   </si>
 </sst>
 </file>
@@ -2441,10 +5189,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A331" sqref="A331:XFD331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2452,11 +5200,11 @@
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.28515625" customWidth="1"/>
-    <col min="8" max="8" width="77.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="81.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2610,7 +5358,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>379</v>
       </c>
@@ -2711,7 +5459,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>384</v>
       </c>
@@ -2795,7 +5543,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>388</v>
       </c>
@@ -3502,7 +6250,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="45">
+    <row r="51" spans="1:8" ht="30">
       <c r="A51" s="1" t="s">
         <v>422</v>
       </c>
@@ -3916,7 +6664,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="60">
+    <row r="71" spans="1:8" ht="45">
       <c r="A71" s="1" t="s">
         <v>442</v>
       </c>
@@ -3937,7 +6685,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30">
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>443</v>
       </c>
@@ -4330,113 +7078,106 @@
     </row>
     <row r="91" spans="1:9" ht="30">
       <c r="A91" s="1" t="s">
-        <v>462</v>
+        <v>687</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="45">
-      <c r="A92" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="E92" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="30">
-      <c r="A93" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>9</v>
+        <v>698</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>472</v>
+        <v>699</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>473</v>
+        <v>700</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>475</v>
+        <v>702</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>476</v>
+        <v>703</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>477</v>
+        <v>704</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>14</v>
@@ -4448,74 +7189,65 @@
         <v>463</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>480</v>
+        <v>184</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" ht="45">
       <c r="A96" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>28</v>
+        <v>468</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>485</v>
+        <v>260</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="30">
       <c r="A97" s="1" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>330</v>
+        <v>126</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>65</v>
@@ -4523,28 +7255,28 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>65</v>
@@ -4552,23 +7284,28 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B99" s="1"/>
+        <v>479</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="D99" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="E99" s="1" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>65</v>
@@ -4576,23 +7313,28 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B100" s="1"/>
+        <v>484</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="D100" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E100" s="1" t="s">
-        <v>502</v>
+        <v>28</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>65</v>
@@ -4600,52 +7342,57 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="30">
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B102" s="1"/>
+        <v>492</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="D102" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="E102" s="1" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>65</v>
@@ -4653,110 +7400,108 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>8</v>
+        <v>497</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>518</v>
+        <v>500</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1" t="s">
-        <v>463</v>
+        <v>501</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>316</v>
+        <v>503</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>522</v>
+        <v>505</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D105" s="1" t="s">
-        <v>463</v>
+        <v>138</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>524</v>
+        <v>43</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>509</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="30">
       <c r="A106" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>362</v>
+        <v>511</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>65</v>
+        <v>514</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="30">
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -4771,119 +7516,119 @@
         <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>167</v>
+        <v>463</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>535</v>
+        <v>316</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>539</v>
+        <v>463</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>541</v>
+        <v>98</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="30">
+        <v>526</v>
+      </c>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B110" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C110" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="D110" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E110" s="1" t="s">
-        <v>545</v>
+        <v>362</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>546</v>
+        <v>256</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>548</v>
+        <v>65</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="45">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B111" s="1"/>
+        <v>529</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C111" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="D111" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E111" s="1" t="s">
-        <v>550</v>
+        <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>65</v>
@@ -4891,670 +7636,5667 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D112" s="1" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>99</v>
+        <v>534</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>557</v>
+        <v>537</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>75</v>
+        <v>539</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>8</v>
+        <v>540</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" ht="30">
       <c r="A114" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1" t="s">
-        <v>251</v>
+        <v>544</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>117</v>
+        <v>545</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>548</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="45">
       <c r="A115" s="1" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>570</v>
+        <v>553</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B116" s="1"/>
+        <v>554</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E116" s="1" t="s">
-        <v>572</v>
+        <v>99</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="30">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D117" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>577</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="30">
+        <v>561</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B118" s="1"/>
+        <v>562</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="E118" s="1" t="s">
-        <v>582</v>
+        <v>117</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="30">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="30">
       <c r="A121" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="30">
       <c r="A123" s="1" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>587</v>
+      </c>
       <c r="F123" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G123" s="1"/>
-      <c r="H123" s="3"/>
-    </row>
-    <row r="124" spans="1:9" ht="30">
+        <v>588</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="60">
       <c r="A124" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B124" s="1"/>
+        <v>706</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>707</v>
+      </c>
       <c r="E124" s="1" t="s">
-        <v>605</v>
+        <v>708</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>606</v>
+        <v>709</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>607</v>
+        <v>710</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="45">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>82</v>
+        <v>593</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>88</v>
+        <v>582</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="30">
       <c r="A127" s="1" t="s">
-        <v>617</v>
+        <v>712</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>179</v>
+        <v>713</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>8</v>
+        <v>714</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>618</v>
+        <v>715</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>619</v>
+        <v>716</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>620</v>
+        <v>717</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="E128" s="1" t="s">
-        <v>152</v>
+        <v>601</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="E129" s="1" t="s">
-        <v>627</v>
-      </c>
+      <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>630</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" ht="30">
       <c r="A130" s="1" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="45">
       <c r="A131" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E131" s="1" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="30">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B133" s="1"/>
+        <v>617</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E133" s="1" t="s">
-        <v>643</v>
+        <v>8</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>147</v>
+        <v>618</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="60">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>27</v>
+        <v>622</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="30">
       <c r="A135" s="1" t="s">
-        <v>650</v>
+        <v>718</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="E135" s="1" t="s">
-        <v>651</v>
+        <v>719</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>652</v>
+        <v>720</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>653</v>
+        <v>721</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="30">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>112</v>
+        <v>627</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="30">
       <c r="A137" s="1" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="30">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B138" s="1"/>
+        <v>636</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E138" s="1" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>667</v>
+        <v>629</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>668</v>
+        <v>630</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>669</v>
+        <v>638</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="E140" s="1" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>675</v>
+        <v>147</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="60">
       <c r="A141" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B141" s="1"/>
+        <v>646</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E141" s="1" t="s">
-        <v>679</v>
+        <v>143</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="30">
       <c r="A142" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E142" s="1" t="s">
-        <v>8</v>
+        <v>724</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>684</v>
+        <v>725</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>685</v>
+        <v>726</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>686</v>
+        <v>727</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>650</v>
+      </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="3"/>
+      <c r="E143" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="30">
+      <c r="A144" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="E144" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="30">
+      <c r="A148" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="45">
+      <c r="A149" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="30">
+      <c r="A153" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="E153" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="E154" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="30">
+      <c r="A155" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="E156" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="E157" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:8" ht="30">
+      <c r="A159" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="45">
+      <c r="A160" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="E162" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="30">
+      <c r="A165" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="45">
+      <c r="A169" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="45">
+      <c r="A170" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="30">
+      <c r="A171" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="30">
+      <c r="A175" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="30">
+      <c r="A178" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:8" ht="30">
+      <c r="A182" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="30">
+      <c r="A183" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="30">
+      <c r="A184" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="30">
+      <c r="A186" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="45">
+      <c r="A191" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="30">
+      <c r="A192" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="30">
+      <c r="A193" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="30">
+      <c r="A199" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="30">
+      <c r="A201" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="30">
+      <c r="A205" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="45">
+      <c r="A209" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="E213" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="30">
+      <c r="A214" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="30">
+      <c r="A215" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="30">
+      <c r="A217" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="30">
+      <c r="A218" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="30">
+      <c r="A219" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="45">
+      <c r="A222" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="E222" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="30">
+      <c r="A223" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="30">
+      <c r="A225" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="105">
+      <c r="A226" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="E226" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="45">
+      <c r="A230" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="E230" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="60">
+      <c r="A231" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="30">
+      <c r="A232" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="30">
+      <c r="A235" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="45">
+      <c r="A236" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="E238" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="30">
+      <c r="A240" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="30">
+      <c r="A241" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="60">
+      <c r="A242" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="45">
+      <c r="A243" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="30">
+      <c r="A246" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="30">
+      <c r="A247" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="30">
+      <c r="A248" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="E252" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="30">
+      <c r="A253" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="30">
+      <c r="A255" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="30">
+      <c r="A256" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="30">
+      <c r="A257" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="30">
+      <c r="A260" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="30">
+      <c r="A262" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="30">
+      <c r="A263" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="30">
+      <c r="A264" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G265" s="1"/>
+      <c r="H265" s="3"/>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="30">
+      <c r="A270" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="30">
+      <c r="A271" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="30">
+      <c r="A273" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="E274" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H275" s="3"/>
+    </row>
+    <row r="276" spans="1:8" ht="30">
+      <c r="A276" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="E277" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="30">
+      <c r="A278" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H279" s="3"/>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="60">
+      <c r="A281" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="30">
+      <c r="A283" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="45">
+      <c r="A284" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="30">
+      <c r="A285" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="30">
+      <c r="A286" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H291" s="3"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G292" s="1"/>
+      <c r="H292" s="3"/>
+    </row>
+    <row r="293" spans="1:8" ht="45">
+      <c r="A293" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="30">
+      <c r="A294" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="30">
+      <c r="A295" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H296" s="3"/>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="30">
+      <c r="A299" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H300" s="3"/>
+    </row>
+    <row r="301" spans="1:8" ht="30">
+      <c r="A301" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="30">
+      <c r="A303" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="60">
+      <c r="A305" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H307" s="3"/>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G308" s="1"/>
+      <c r="H308" s="3"/>
+    </row>
+    <row r="309" spans="1:8" ht="75">
+      <c r="A309" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="30">
+      <c r="A311" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="45">
+      <c r="A314" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="E315" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="60">
+      <c r="A318" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="30">
+      <c r="A320" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="E321" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="30">
+      <c r="A322" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H324" s="3"/>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="60">
+      <c r="A326" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="30">
+      <c r="A329" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="E331" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="30">
+      <c r="A342" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="30">
+      <c r="A343" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="30">
+      <c r="A344" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="E344" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="30">
+      <c r="A346" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="30">
+      <c r="A348" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="45">
+      <c r="A349" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="45">
+      <c r="A350" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="30">
+      <c r="A351" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="30">
+      <c r="A354" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="45">
+      <c r="A356" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="30">
+      <c r="A357" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
